--- a/lookupTable.xlsx
+++ b/lookupTable.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="234">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -240,6 +240,30 @@
     <t>field 67</t>
   </si>
   <si>
+    <t>field 68</t>
+  </si>
+  <si>
+    <t>field 69</t>
+  </si>
+  <si>
+    <t>field 70</t>
+  </si>
+  <si>
+    <t>field 71</t>
+  </si>
+  <si>
+    <t>field 72</t>
+  </si>
+  <si>
+    <t>field 73</t>
+  </si>
+  <si>
+    <t>field 74</t>
+  </si>
+  <si>
+    <t>field 75</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -450,6 +474,30 @@
     <t>hivPositiveNC50</t>
   </si>
   <si>
+    <t>fu15-19</t>
+  </si>
+  <si>
+    <t>fu20-24</t>
+  </si>
+  <si>
+    <t>fu25-29</t>
+  </si>
+  <si>
+    <t>fu30-34</t>
+  </si>
+  <si>
+    <t>fu35-39</t>
+  </si>
+  <si>
+    <t>fu40-44</t>
+  </si>
+  <si>
+    <t>fu45-49</t>
+  </si>
+  <si>
+    <t>fu50</t>
+  </si>
+  <si>
     <t>UID</t>
   </si>
   <si>
@@ -652,6 +700,30 @@
   </si>
   <si>
     <t>field: hivPositiveNC50</t>
+  </si>
+  <si>
+    <t>field: fu15-19</t>
+  </si>
+  <si>
+    <t>field: fu20-24</t>
+  </si>
+  <si>
+    <t>field: fu25-29</t>
+  </si>
+  <si>
+    <t>field: fu30-34</t>
+  </si>
+  <si>
+    <t>field: fu35-39</t>
+  </si>
+  <si>
+    <t>field: fu40-44</t>
+  </si>
+  <si>
+    <t>field: fu45-49</t>
+  </si>
+  <si>
+    <t>field: fu50</t>
   </si>
   <si>
     <t>33169b96af104a5686056fe8780b8467</t>
@@ -1627,15 +1699,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BM19" sqref="BM19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:70">
+    <row r="1" s="1" customFormat="1" spans="1:78">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1846,217 +1918,265 @@
       <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:70">
+    <row r="2" s="1" customFormat="1" spans="1:78">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2068,10 +2188,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BQ3"/>
+  <dimension ref="A1:BY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BM19" sqref="BM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -2079,229 +2199,253 @@
     <col min="5" max="5" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:69">
+    <row r="1" s="1" customFormat="1" spans="1:77">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/lookupTable.xlsx
+++ b/lookupTable.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="258">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -264,6 +264,30 @@
     <t>field 75</t>
   </si>
   <si>
+    <t>field 76</t>
+  </si>
+  <si>
+    <t>field 77</t>
+  </si>
+  <si>
+    <t>field 78</t>
+  </si>
+  <si>
+    <t>field 79</t>
+  </si>
+  <si>
+    <t>field 80</t>
+  </si>
+  <si>
+    <t>field 81</t>
+  </si>
+  <si>
+    <t>field 82</t>
+  </si>
+  <si>
+    <t>field 83</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -498,6 +522,30 @@
     <t>fu50</t>
   </si>
   <si>
+    <t>total_hiv_negative_linked_to_prep</t>
+  </si>
+  <si>
+    <t>total_hiv_positive_linked_to_care</t>
+  </si>
+  <si>
+    <t>total_mcs_referred_for_srh_services</t>
+  </si>
+  <si>
+    <t>total_mcs_referred_for_sti_services</t>
+  </si>
+  <si>
+    <t>uncircumcised_care</t>
+  </si>
+  <si>
+    <t>uncircumcised_prep</t>
+  </si>
+  <si>
+    <t>uncircumcised_srh</t>
+  </si>
+  <si>
+    <t>uncircumcised_sti</t>
+  </si>
+  <si>
     <t>UID</t>
   </si>
   <si>
@@ -724,6 +772,30 @@
   </si>
   <si>
     <t>field: fu50</t>
+  </si>
+  <si>
+    <t>field: total_hiv_negative_linked_to_prep</t>
+  </si>
+  <si>
+    <t>field: total_hiv_positive_linked_to_care</t>
+  </si>
+  <si>
+    <t>field: total_mcs_referred_for_srh_services</t>
+  </si>
+  <si>
+    <t>field: total_mcs_referred_for_sti_services</t>
+  </si>
+  <si>
+    <t>field: uncircumcised_care</t>
+  </si>
+  <si>
+    <t>field: uncircumcised_prep</t>
+  </si>
+  <si>
+    <t>field: uncircumcised_srh</t>
+  </si>
+  <si>
+    <t>field: uncircumcised_sti</t>
   </si>
   <si>
     <t>33169b96af104a5686056fe8780b8467</t>
@@ -737,10 +809,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1208,16 +1280,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,6 +1484,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1699,15 +1778,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BZ2"/>
+  <dimension ref="A1:CH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:78">
+    <row r="1" s="1" customFormat="1" spans="1:86">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,241 +2021,289 @@
       <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:78">
+    <row r="2" s="1" customFormat="1" spans="1:86">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2188,10 +2315,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BY3"/>
+  <dimension ref="A1:CG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BM19" sqref="BM19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -2199,253 +2326,277 @@
     <col min="5" max="5" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:77">
+    <row r="1" s="1" customFormat="1" spans="1:85">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>231</v>
+        <v>247</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
